--- a/biology/Botanique/Square_Léo-Ferré/Square_Léo-Ferré.xlsx
+++ b/biology/Botanique/Square_Léo-Ferré/Square_Léo-Ferré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_L%C3%A9o-Ferr%C3%A9</t>
+          <t>Square_Léo-Ferré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Léo-Ferré, anciennement dénommé jardin Brûlon-Cîteaux, est un espace vert du 12e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_L%C3%A9o-Ferr%C3%A9</t>
+          <t>Square_Léo-Ferré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square Léo-Ferré est un petit jardin en longueur situé près du faubourg Saint-Antoine (entre les nos 160 et 164, accès par la rue de Cîteaux). Il est accessible par la rue de Cîteaux, le passage Brulon, et l'impasse Druinot.
 Il est voisin du jardin partagé de l’association La Commune libre d’Aligre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_L%C3%A9o-Ferr%C3%A9</t>
+          <t>Square_Léo-Ferré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à l'auteur-compositeur-interprète, pianiste et poète Léo Ferré (1916-1993).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_L%C3%A9o-Ferr%C3%A9</t>
+          <t>Square_Léo-Ferré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tout en longueur, le « jardin Brûlon-Cîteaux » est créé en 2007 et il est rebaptisé « square Léo-Ferré » le 24 octobre 2009[1],[2] en hommage au chanteur disparu.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout en longueur, le « jardin Brûlon-Cîteaux » est créé en 2007 et il est rebaptisé « square Léo-Ferré » le 24 octobre 2009, en hommage au chanteur disparu.
 </t>
         </is>
       </c>
